--- a/data_year/zb/工业/按行业分大中型工业企业主要经济指标(2000-2002)/国家资本金.xlsx
+++ b/data_year/zb/工业/按行业分大中型工业企业主要经济指标(2000-2002)/国家资本金.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO4"/>
+  <dimension ref="B1:AO1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -635,387 +635,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>2000年</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>222.24156</v>
-      </c>
-      <c r="C2" t="n">
-        <v>642.33767</v>
-      </c>
-      <c r="D2" t="n">
-        <v>43.73271</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.08527999999999999</v>
-      </c>
-      <c r="F2" t="n">
-        <v>3.88449</v>
-      </c>
-      <c r="G2" t="n">
-        <v>726.70827</v>
-      </c>
-      <c r="H2" t="n">
-        <v>156.78061</v>
-      </c>
-      <c r="I2" t="n">
-        <v>135.79426</v>
-      </c>
-      <c r="J2" t="n">
-        <v>75.66275</v>
-      </c>
-      <c r="K2" t="n">
-        <v>40.12238</v>
-      </c>
-      <c r="L2" t="n">
-        <v>11372.59758</v>
-      </c>
-      <c r="M2" t="n">
-        <v>6.33884</v>
-      </c>
-      <c r="N2" t="n">
-        <v>5.94087</v>
-      </c>
-      <c r="O2" t="n">
-        <v>317.17847</v>
-      </c>
-      <c r="P2" t="n">
-        <v>331.7195</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>63.68594</v>
-      </c>
-      <c r="R2" t="n">
-        <v>23.72111</v>
-      </c>
-      <c r="S2" t="n">
-        <v>23.61614</v>
-      </c>
-      <c r="T2" t="n">
-        <v>77.77047</v>
-      </c>
-      <c r="U2" t="n">
-        <v>73.38083</v>
-      </c>
-      <c r="V2" t="n">
-        <v>285.34915</v>
-      </c>
-      <c r="W2" t="n">
-        <v>213.88981</v>
-      </c>
-      <c r="X2" t="n">
-        <v>809.21052</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>1407.02234</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>262.22471</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>161.09539</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>9.62435</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>230.004</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>1458.99218</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>295.99191</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>327.69807</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>138.06009</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>63.69254</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>346.01361</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>101.68568</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>68.21053999999999</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>146.59005</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>185.6436</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>1751.83159</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>97.04711</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>2001年</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>239.60671</v>
-      </c>
-      <c r="C3" t="n">
-        <v>609.1391599999999</v>
-      </c>
-      <c r="D3" t="n">
-        <v>50.2931</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.08527999999999999</v>
-      </c>
-      <c r="F3" t="n">
-        <v>5.67909</v>
-      </c>
-      <c r="G3" t="n">
-        <v>699.09374</v>
-      </c>
-      <c r="H3" t="n">
-        <v>102.02384</v>
-      </c>
-      <c r="I3" t="n">
-        <v>156.98945</v>
-      </c>
-      <c r="J3" t="n">
-        <v>89.62622</v>
-      </c>
-      <c r="K3" t="n">
-        <v>58.65999</v>
-      </c>
-      <c r="L3" t="n">
-        <v>11868.83302</v>
-      </c>
-      <c r="M3" t="n">
-        <v>5.46923</v>
-      </c>
-      <c r="N3" t="n">
-        <v>7.36647</v>
-      </c>
-      <c r="O3" t="n">
-        <v>291.1046</v>
-      </c>
-      <c r="P3" t="n">
-        <v>330.63411</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>57.69539</v>
-      </c>
-      <c r="R3" t="n">
-        <v>20.36879</v>
-      </c>
-      <c r="S3" t="n">
-        <v>25.9527</v>
-      </c>
-      <c r="T3" t="n">
-        <v>73.28373000000001</v>
-      </c>
-      <c r="U3" t="n">
-        <v>77.46398000000001</v>
-      </c>
-      <c r="V3" t="n">
-        <v>290.75435</v>
-      </c>
-      <c r="W3" t="n">
-        <v>215.8657</v>
-      </c>
-      <c r="X3" t="n">
-        <v>902.56567</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>1669.3953</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>297.62238</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>192.57727</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>9.793200000000001</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>242.74665</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>1527.83889</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>293.75086</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>309.39677</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>169.66673</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>65.94373</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>328.24573</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>129.37796</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>56.27369</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>136.22856</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>180.15531</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>1827.90065</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>94.26837</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>2002年</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>254.62651</v>
-      </c>
-      <c r="C4" t="n">
-        <v>723.64413</v>
-      </c>
-      <c r="D4" t="n">
-        <v>52.24558</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.08527999999999999</v>
-      </c>
-      <c r="F4" t="n">
-        <v>4.62183</v>
-      </c>
-      <c r="G4" t="n">
-        <v>668.24107</v>
-      </c>
-      <c r="H4" t="n">
-        <v>95.23406</v>
-      </c>
-      <c r="I4" t="n">
-        <v>201.28824</v>
-      </c>
-      <c r="J4" t="n">
-        <v>74.1362</v>
-      </c>
-      <c r="K4" t="n">
-        <v>55.13406</v>
-      </c>
-      <c r="L4" t="n">
-        <v>11303.68587</v>
-      </c>
-      <c r="M4" t="n">
-        <v>4.95246</v>
-      </c>
-      <c r="N4" t="n">
-        <v>6.59354</v>
-      </c>
-      <c r="O4" t="n">
-        <v>293.48609</v>
-      </c>
-      <c r="P4" t="n">
-        <v>333.5428</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>57.26974</v>
-      </c>
-      <c r="R4" t="n">
-        <v>17.42243</v>
-      </c>
-      <c r="S4" t="n">
-        <v>25.92823</v>
-      </c>
-      <c r="T4" t="n">
-        <v>70.63875</v>
-      </c>
-      <c r="U4" t="n">
-        <v>65.27669</v>
-      </c>
-      <c r="V4" t="n">
-        <v>295.28535</v>
-      </c>
-      <c r="W4" t="n">
-        <v>216.80146</v>
-      </c>
-      <c r="X4" t="n">
-        <v>1179.86677</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>1669.5741</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>290.68969</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>162.60179</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>6.95664</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>324.29931</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>911.17938</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>290.22942</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>365.64406</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>183.24868</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>69.51711</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>340.35143</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>107.95839</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>57.73199</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>128.98343</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>175.42155</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>1392.36861</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>92.46419</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
